--- a/help/api.xlsx
+++ b/help/api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\intern_choose\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8816F72D-9A27-4987-817F-4C3FD74AA41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430C3078-3F27-4E18-B17C-73CB5B8D1B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38490" yWindow="2745" windowWidth="17280" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,14 +382,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>api/backstage/teacherStudent/batchAdd?studentNumbers=&amp;tpgId=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentNumbers为学生学号字符串（学号，学号）以逗号隔开，英文逗号, tpgId实习老师ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取没有选择实习老师的学生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -510,6 +502,14 @@
   </si>
   <si>
     <t>教师学生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNumbers为学生学号字符串（学号，学号）以逗号隔开 JSON格式，英文逗号, tpgId实习老师ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/backstage/teacherStudent/batchAdd?tpgId=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -704,14 +704,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1019,13 +1019,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -1034,7 +1034,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1049,7 +1049,7 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1089,14 +1089,14 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1152,13 +1152,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1166,14 +1166,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,31 +1201,31 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1252,13 +1252,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1266,14 +1266,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1300,31 +1300,31 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,31 +1351,31 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1402,55 +1402,55 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
@@ -1477,31 +1477,31 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="16"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="1" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,43 +1528,43 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="16"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="1" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="1" t="s">
         <v>70</v>
       </c>
@@ -1599,29 +1599,29 @@
         <v>71</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="E55" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1635,7 +1635,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="1" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1659,13 +1659,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
@@ -1674,7 +1674,7 @@
       <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -1686,7 +1686,7 @@
       <c r="B61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="16"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="3" t="s">
         <v>42</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="B62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="2" t="s">
         <v>21</v>
       </c>
@@ -1719,20 +1719,20 @@
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="1" t="s">
         <v>24</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -1797,7 +1797,7 @@
       <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="16"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="3" t="s">
         <v>40</v>
       </c>
@@ -1807,19 +1807,19 @@
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="16"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="16"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="2" t="s">
         <v>64</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="B73" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="16"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="2" t="s">
         <v>66</v>
       </c>
@@ -1855,16 +1855,16 @@
     <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="E75" t="s">
         <v>76</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1902,20 +1902,6 @@
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A60:A64"/>
     <mergeCell ref="A72:A75"/>
     <mergeCell ref="C69:C73"/>
     <mergeCell ref="A1:E1"/>
@@ -1932,6 +1918,20 @@
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A60:A64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
